--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.accident.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.accident.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,15 +450,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Type of accident: work place, auto, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-ActIncidentCode-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:location</t>
@@ -495,7 +486,7 @@
   </si>
   <si>
     <t>Address
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)</t>
   </si>
   <si>
     <t>base64Binary
@@ -855,8 +846,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="32.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.1875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2299,13 +2290,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2343,13 +2334,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2374,14 +2365,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2450,7 +2441,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2553,7 +2544,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2658,7 +2649,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2701,7 +2692,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2763,7 +2754,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2789,13 +2780,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2997,13 +2988,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
